--- a/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001312</t>
+          <t>002363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合A</t>
+          <t>华安安康灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25.52</t>
+          <t>17.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001782</t>
+          <t>001312</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合A</t>
+          <t>华安新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>7.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>002364</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>华安安康灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>25.52</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.27</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002363</t>
+          <t>001782</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合A</t>
+          <t>九泰久益灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>26.04</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002364</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合C</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>26.04</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005695</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -754,15 +854,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>90.43</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>4.36</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -818,26 +938,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -856,15 +986,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>87.94</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.63</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001844</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>九泰久益灵活配置混合C</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.94</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>001844</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>九泰久益灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.36</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1334,4 +1335,2264 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2867</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>900052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1632</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>900003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3128</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5606</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900079</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信证券臻选价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5004</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4926</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4849</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4217</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4168</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4096</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3637</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>900152</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信证券臻选回报两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>73.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002573</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信汇利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>74.78</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3595,4 +3596,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3604,7 +3605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3615,17 +3616,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3635,14 +3656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.34</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.1621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3651,14 +3694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1</v>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>79.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8405</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3667,14 +3732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9946</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3683,13 +3770,2655 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8223</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6658</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6136</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0780</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7592</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7434</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5118</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5012</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4579</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4424</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3761</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3743</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3107</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010417</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商盛洋3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2964</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2633</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1589</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>31.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010828</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>66.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010829</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国寿安保稳悦混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>29.82</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6317,7 +6318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6328,17 +6329,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6348,14 +6369,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" t="n">
-        <v>27.03</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -6364,14 +6407,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.34</v>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6380,14 +6445,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1</v>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4619</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6396,14 +6483,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.13</v>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3387</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6412,13 +6521,1419 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3303</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1851</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005412</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>34.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信民长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>38.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>37.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7816,7 +7817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7827,17 +7828,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7847,14 +7868,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>38</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.789999999999999</v>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5890</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7863,14 +7906,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.03</v>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8300</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7879,14 +7944,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.34</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7895,14 +7982,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.1</v>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -7911,14 +8020,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -7927,13 +8058,1893 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1614</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004446</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>38.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银汇理秀山一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001115</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发聚安混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>60.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011052</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>64.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001116</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发聚安混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011053</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华弘裕一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004447</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方荣年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>51</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.789999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.58</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>10.48</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>8.789999999999999</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>27.03</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>18.34</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>10</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -600,6 +617,2076 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0305</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6972</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012354</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方新能源产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6651</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5989</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3972</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015396</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3911</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3892</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3272</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3246</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2920</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012355</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方新能源产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014499</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>690001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>民生加银品牌蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>70.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011572</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>39.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>59.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011573</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>39.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2593,7 +4680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4091,7 +6178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6803,7 +8890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9063,7 +11150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9271,7 +11358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9517,7 +11604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
+++ b/数据整理/stocks/A股/深证主板/002531-天顺风能.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>11.88</v>
+        <v>10.59</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>10.48</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
-        <v>8.789999999999999</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>27.03</v>
+        <v>8.789999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
-        <v>18.34</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>10</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -616,7 +633,2929 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110029</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科讯混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8722</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001667</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8138</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7305</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4512</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010299</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012354</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方新能源产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3881</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3834</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3167</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011862</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>202002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方稳健成长贰号混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2880</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014499</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方转型增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011216</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012355</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方新能源产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1260</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015026</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华增华混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159625</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实国证绿色电力ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002160</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方转型驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010300</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011217</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011863</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方蓝筹成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015027</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华增华混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>015641</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华数字经济股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000992</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>69.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013590</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方比较优势混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015642</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银华数字经济股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013591</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方比较优势混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>65.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2686,7 +5625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4680,7 +7619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6178,7 +9117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8890,7 +11829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11150,7 +14089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11358,7 +14297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11602,440 +14541,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002363</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.92</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2294</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001312</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0931</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005695</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0876</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001907</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0495</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002364</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安安康灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>26.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0470</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002144</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0192</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0169</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001908</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005696</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>